--- a/biology/Botanique/Balanophora/Balanophora.xlsx
+++ b/biology/Botanique/Balanophora/Balanophora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Balanophora est un genre de plantes à fleurs s de la famille des Balanophoraceae. Ce sont des plantes parasites.
-Ces espèces se rencontrent dans certaines parties de l'Asie tropicale et tempérée, y compris dans l'Himalaya oriental[1], la région de Malesia, les îles du Pacifique, Madagascar et l'Afrique tropicale[2],[3]. Il existe une vingtaine d'espèces reconnues[4], y compris B. coralliformis récemment découverte. De nombreuses espèces émettent une odeur qui attire peut-être les pollinisateurs de la même manière que les pollinisateurs sont attirés par les Rafflesia[5].
+Ces espèces se rencontrent dans certaines parties de l'Asie tropicale et tempérée, y compris dans l'Himalaya oriental, la région de Malesia, les îles du Pacifique, Madagascar et l'Afrique tropicale,. Il existe une vingtaine d'espèces reconnues, y compris B. coralliformis récemment découverte. De nombreuses espèces émettent une odeur qui attire peut-être les pollinisateurs de la même manière que les pollinisateurs sont attirés par les Rafflesia.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre a été décrit pour la première fois en 1775 par Johann Reinhold Forster et son fils Georg Forster dans Characteres Generum Plantarum[6],[7].
-Le nom générique dérive des mots grec ancien balanos (βάλανος), signifiant "gland" et pherein (φέρειν), signifiant "porter"[8].
-Balanophora yuwanensis, souvent considérée comme la même espèce que Balanophora yakushimensis, fournirait au lapin d'Amami à fourrure sombre (Pentalagus furnessi) des archipel Ryukyu des tissus végétatifs en guise de récompense pour la dispersion des graines. Auparavant, la dispersion des graines de B. yuwanensis était un mystère[9],[10].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre a été décrit pour la première fois en 1775 par Johann Reinhold Forster et son fils Georg Forster dans Characteres Generum Plantarum,.
+Le nom générique dérive des mots grec ancien balanos (βάλανος), signifiant "gland" et pherein (φέρειν), signifiant "porter".
+Balanophora yuwanensis, souvent considérée comme la même espèce que Balanophora yakushimensis, fournirait au lapin d'Amami à fourrure sombre (Pentalagus furnessi) des archipel Ryukyu des tissus végétatifs en guise de récompense pour la dispersion des graines. Auparavant, la dispersion des graines de B. yuwanensis était un mystère,.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (23 décembre 2023)[11] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (23 décembre 2023) :
 Balania mutinodes (Hayata) Masam.
 Balaniella junghuehnii Tiegh.
 Balanophora abbreviata Blume
@@ -581,7 +597,7 @@
 Balanophora typhina Wall., 1832
 Balanophora wilderi Setch.
 Balanophora yakushimensis Hatus. &amp; Masam.
-Balanophora a pour synonymes[11] :
+Balanophora a pour synonymes :
 Acroblastum Sol. ex Seem.
 Acroblastum Sol. ex Setch.
 Balaneikon Setch.
@@ -617,9 +633,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plusieurs espèces de Balanophora sont utilisées dans la médecine traditionnelle dans de nombreuses cultures asiatiques[3]. Par exemple, à Taïwan et en Chine, Balanophora est connu sous le nom de "she-gu" (champignon de pierre) et en Thaïlande sous le nom de "hoh-ra-tao-su-nak". Dans les deux cas, la plante est utilisée pour traiter une variété de maladies et a divers usages rituels. Les tubercules de Balanophora sont riches en une substance semblable à de la cire qui est utilisée à Java comme combustible pour les torches[5],[12].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs espèces de Balanophora sont utilisées dans la médecine traditionnelle dans de nombreuses cultures asiatiques. Par exemple, à Taïwan et en Chine, Balanophora est connu sous le nom de "she-gu" (champignon de pierre) et en Thaïlande sous le nom de "hoh-ra-tao-su-nak". Dans les deux cas, la plante est utilisée pour traiter une variété de maladies et a divers usages rituels. Les tubercules de Balanophora sont riches en une substance semblable à de la cire qui est utilisée à Java comme combustible pour les torches,.
 </t>
         </is>
       </c>
